--- a/biology/Zoologie/Corbeau_familier/Corbeau_familier.xlsx
+++ b/biology/Zoologie/Corbeau_familier/Corbeau_familier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvus splendens
 Le Corbeau familier ou Corneille de l'Inde (Corvus splendens) est une espèce de passereau de la famille des corvidés.
-C'est l'un des oiseaux indiens les plus répandus dans les villes et les villages. Sa dépendance vis-à-vis de l'homme dépasse celle du Moineau domestique (Passer domesticus)[1].
+C'est l'un des oiseaux indiens les plus répandus dans les villes et les villages. Sa dépendance vis-à-vis de l'homme dépasse celle du Moineau domestique (Passer domesticus).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Asie du Sud et en Birmanie. Il a été introduit aux Pays-Bas, en Floride et à travers diverses zones côtières de l'océan Indien.
 Il fréquente les jardins ruraux.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corbeau a une taille d'environ 43 cm et son envergure varie entre 75 et 85 cm[2]. Son poids varie entre 250  et   370 g. La nuque, le cou et la poitrine sont gris clair. La gorge, la zone oculaire, le front, le dos, les ailes et la queue sont noirs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corbeau a une taille d'environ 43 cm et son envergure varie entre 75 et 85 cm. Son poids varie entre 250  et   370 g. La nuque, le cou et la poitrine sont gris clair. La gorge, la zone oculaire, le front, le dos, les ailes et la queue sont noirs.
 </t>
         </is>
       </c>
@@ -578,11 +594,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèce invasive
-Depuis 2016, le corbeau familier est inscrit dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne[4].
-Cela signifie que cette espèce ne peut pas être importée, élevée, transportée, commercialisée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[5]. Cette espèce ne peut plus être détenue sauf dans le cas des animaux de compagnie acquis jusqu’à 1 an après leur ajout sur la liste européenne.
+          <t>Espèce invasive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2016, le corbeau familier est inscrit dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne.
+Cela signifie que cette espèce ne peut pas être importée, élevée, transportée, commercialisée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne. Cette espèce ne peut plus être détenue sauf dans le cas des animaux de compagnie acquis jusqu’à 1 an après leur ajout sur la liste européenne.
 Par ailleurs, les Etats membres ont l’obligation de surveiller et éradiquer les populations de corbeau familier présentes dans la nature, ou si c’est irréalisable de mettre en place des mesures de gestion efficaces pour limiter leur dispersion et réduire au minimum leurs effets néfastes.
-Cette espèce est considérée comme invasive en Afrique également et fait l'objet de nombreuses mesures de contrôle[6].
+Cette espèce est considérée comme invasive en Afrique également et fait l'objet de nombreuses mesures de contrôle.
 </t>
         </is>
       </c>
